--- a/results/table2/table2_cohort_eICU_edited.xlsx
+++ b/results/table2/table2_cohort_eICU_edited.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luca\Code\Leo\mit-lactate\results\table2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08903383-BFAD-4528-B6AC-27574C4DB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50728DC-11E9-4103-9C6B-DC3B71A95A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="38700" windowHeight="15435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table2_cohort_eICU_edited" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,10 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="10" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,15 +784,10 @@
       </font>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -803,10 +798,15 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color rgb="FF3F3F3F"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -823,17 +823,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:I11" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Output">
-  <autoFilter ref="B1:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B1:I11" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Output">
+  <autoFilter ref="B1:I11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Race" dataDxfId="0" dataCellStyle="Output"/>
-    <tableColumn id="2" name="In-Hospital Mortality Prob."/>
-    <tableColumn id="3" name="Length Of Stay [days]"/>
-    <tableColumn id="4" name="Mechanical Ventillation Prob."/>
-    <tableColumn id="5" name="RRT Prob."/>
-    <tableColumn id="6" name="Vasopressor Prob."/>
-    <tableColumn id="7" name="Transfusion Prob."/>
-    <tableColumn id="8" name="Fluids Prob."/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Race" dataDxfId="0" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="In-Hospital Mortality Prob."/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Length Of Stay [days]"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mechanical Ventillation Prob."/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="RRT Prob."/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Vasopressor Prob."/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transfusion Prob."/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fluids Prob."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1135,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1184,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
@@ -1213,8 +1213,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
@@ -1240,10 +1240,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C4" t="s">
@@ -1269,8 +1269,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C5" t="s">
@@ -1296,10 +1296,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="s">
@@ -1325,8 +1325,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C7" t="s">
@@ -1352,10 +1352,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="s">
@@ -1381,8 +1381,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
@@ -1408,10 +1408,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
@@ -1437,8 +1437,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C11" t="s">
